--- a/inter.xlsx
+++ b/inter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Root</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Mis</t>
   </si>
   <si>
-    <t>حمد</t>
-  </si>
-  <si>
-    <t>شنشس</t>
-  </si>
-  <si>
-    <t>شنش</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>شسيبس</t>
   </si>
   <si>
     <t>جمل</t>
@@ -373,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,73 +378,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6">
+      <c t="s" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
+      <c t="s" r="E1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:6">
+      <c t="s" r="A2">
+        <v>5</v>
+      </c>
+      <c t="n" r="B2">
+        <v>1</v>
+      </c>
+      <c t="n" r="C2">
+        <v>0</v>
+      </c>
+      <c t="n" r="D2">
+        <v>0</v>
+      </c>
+      <c t="n" r="E2">
+        <v>1</v>
+      </c>
+      <c t="n" r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c t="s" r="A3">
+        <v>6</v>
+      </c>
+      <c t="n" r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
+      <c t="n" r="C3">
+        <v>0</v>
+      </c>
+      <c t="n" r="D3">
+        <v>0</v>
+      </c>
+      <c t="n" r="E3">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
+      <c t="n" r="F3">
         <v>0</v>
       </c>
     </row>

--- a/inter.xlsx
+++ b/inter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Root</t>
   </si>
@@ -35,6 +35,81 @@
   </si>
   <si>
     <t>جمل</t>
+  </si>
+  <si>
+    <t>حمد</t>
+  </si>
+  <si>
+    <t>غلل</t>
+  </si>
+  <si>
+    <t>جمي</t>
+  </si>
+  <si>
+    <t>رهب</t>
+  </si>
+  <si>
+    <t>جحم</t>
+  </si>
+  <si>
+    <t>يكر</t>
+  </si>
+  <si>
+    <t>يمش</t>
+  </si>
+  <si>
+    <t>يحب</t>
+  </si>
+  <si>
+    <t>سمع</t>
+  </si>
+  <si>
+    <t>صدق</t>
+  </si>
+  <si>
+    <t>وسس</t>
+  </si>
+  <si>
+    <t>غرق</t>
+  </si>
+  <si>
+    <t>زخرف</t>
+  </si>
+  <si>
+    <t>عمل</t>
+  </si>
+  <si>
+    <t>غنة</t>
+  </si>
+  <si>
+    <t>فقر</t>
+  </si>
+  <si>
+    <t>جيد</t>
+  </si>
+  <si>
+    <t>سيئ</t>
+  </si>
+  <si>
+    <t>حسن</t>
+  </si>
+  <si>
+    <t>ريض</t>
+  </si>
+  <si>
+    <t>عطش</t>
+  </si>
+  <si>
+    <t>قبح</t>
+  </si>
+  <si>
+    <t>بدن</t>
+  </si>
+  <si>
+    <t>هزل</t>
+  </si>
+  <si>
+    <t>جذب</t>
   </si>
 </sst>
 </file>
@@ -370,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,7 +453,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row spans="1:6" r="1">
       <c t="s" r="A1">
         <v>0</v>
       </c>
@@ -395,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row spans="1:6" r="2">
       <c t="s" r="A2">
         <v>5</v>
       </c>
@@ -412,26 +487,526 @@
         <v>1</v>
       </c>
       <c t="n" r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row spans="1:6" r="3">
       <c t="s" r="A3">
         <v>6</v>
       </c>
       <c t="n" r="B3">
+        <v>9</v>
+      </c>
+      <c t="n" r="C3">
+        <v>0</v>
+      </c>
+      <c t="n" r="D3">
+        <v>0</v>
+      </c>
+      <c t="n" r="E3">
+        <v>9</v>
+      </c>
+      <c t="n" r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="4">
+      <c t="s" r="A4">
+        <v>7</v>
+      </c>
+      <c t="n" r="B4">
+        <v>5</v>
+      </c>
+      <c t="n" r="C4">
+        <v>0</v>
+      </c>
+      <c t="n" r="D4">
+        <v>0</v>
+      </c>
+      <c t="n" r="E4">
+        <v>5</v>
+      </c>
+      <c t="n" r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="5">
+      <c t="s" r="A5">
+        <v>8</v>
+      </c>
+      <c t="n" r="B5">
+        <v>0</v>
+      </c>
+      <c t="n" r="C5">
+        <v>5</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>5</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="6">
+      <c t="s" r="A6">
+        <v>9</v>
+      </c>
+      <c t="n" r="B6">
+        <v>1</v>
+      </c>
+      <c t="n" r="C6">
+        <v>0</v>
+      </c>
+      <c t="n" r="D6">
+        <v>0</v>
+      </c>
+      <c t="n" r="E6">
+        <v>1</v>
+      </c>
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="7">
+      <c t="s" r="A7">
+        <v>10</v>
+      </c>
+      <c t="n" r="B7">
+        <v>0</v>
+      </c>
+      <c t="n" r="C7">
+        <v>0</v>
+      </c>
+      <c t="n" r="D7">
+        <v>3</v>
+      </c>
+      <c t="n" r="E7">
+        <v>3</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="8">
+      <c t="s" r="A8">
+        <v>11</v>
+      </c>
+      <c t="n" r="B8">
+        <v>0</v>
+      </c>
+      <c t="n" r="C8">
         <v>2</v>
       </c>
-      <c t="n" r="C3">
-        <v>0</v>
-      </c>
-      <c t="n" r="D3">
-        <v>0</v>
-      </c>
-      <c t="n" r="E3">
+      <c t="n" r="D8">
+        <v>0</v>
+      </c>
+      <c t="n" r="E8">
         <v>2</v>
       </c>
-      <c t="n" r="F3">
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="9">
+      <c t="s" r="A9">
+        <v>12</v>
+      </c>
+      <c t="n" r="B9">
+        <v>0</v>
+      </c>
+      <c t="n" r="C9">
+        <v>1</v>
+      </c>
+      <c t="n" r="D9">
+        <v>0</v>
+      </c>
+      <c t="n" r="E9">
+        <v>1</v>
+      </c>
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="10">
+      <c t="s" r="A10">
+        <v>13</v>
+      </c>
+      <c t="n" r="B10">
+        <v>0</v>
+      </c>
+      <c t="n" r="C10">
+        <v>0</v>
+      </c>
+      <c t="n" r="D10">
+        <v>1</v>
+      </c>
+      <c t="n" r="E10">
+        <v>1</v>
+      </c>
+      <c t="n" r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="11">
+      <c t="s" r="A11">
+        <v>14</v>
+      </c>
+      <c t="n" r="B11">
+        <v>1</v>
+      </c>
+      <c t="n" r="C11">
+        <v>0</v>
+      </c>
+      <c t="n" r="D11">
+        <v>0</v>
+      </c>
+      <c t="n" r="E11">
+        <v>1</v>
+      </c>
+      <c t="n" r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="12">
+      <c t="s" r="A12">
+        <v>15</v>
+      </c>
+      <c t="n" r="B12">
+        <v>0</v>
+      </c>
+      <c t="n" r="C12">
+        <v>0</v>
+      </c>
+      <c t="n" r="D12">
+        <v>1</v>
+      </c>
+      <c t="n" r="E12">
+        <v>1</v>
+      </c>
+      <c t="n" r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="13">
+      <c t="s" r="A13">
+        <v>16</v>
+      </c>
+      <c t="n" r="B13">
+        <v>1</v>
+      </c>
+      <c t="n" r="C13">
+        <v>0</v>
+      </c>
+      <c t="n" r="D13">
+        <v>0</v>
+      </c>
+      <c t="n" r="E13">
+        <v>1</v>
+      </c>
+      <c t="n" r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="14">
+      <c t="s" r="A14">
+        <v>17</v>
+      </c>
+      <c t="n" r="B14">
+        <v>0</v>
+      </c>
+      <c t="n" r="C14">
+        <v>1</v>
+      </c>
+      <c t="n" r="D14">
+        <v>0</v>
+      </c>
+      <c t="n" r="E14">
+        <v>1</v>
+      </c>
+      <c t="n" r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="15">
+      <c t="s" r="A15">
+        <v>18</v>
+      </c>
+      <c t="n" r="B15">
+        <v>0</v>
+      </c>
+      <c t="n" r="C15">
+        <v>0</v>
+      </c>
+      <c t="n" r="D15">
+        <v>1</v>
+      </c>
+      <c t="n" r="E15">
+        <v>1</v>
+      </c>
+      <c t="n" r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="16">
+      <c t="s" r="A16">
+        <v>19</v>
+      </c>
+      <c t="n" r="B16">
+        <v>1</v>
+      </c>
+      <c t="n" r="C16">
+        <v>0</v>
+      </c>
+      <c t="n" r="D16">
+        <v>0</v>
+      </c>
+      <c t="n" r="E16">
+        <v>1</v>
+      </c>
+      <c t="n" r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="17">
+      <c t="s" r="A17">
+        <v>20</v>
+      </c>
+      <c t="n" r="B17">
+        <v>0</v>
+      </c>
+      <c t="n" r="C17">
+        <v>0</v>
+      </c>
+      <c t="n" r="D17">
+        <v>1</v>
+      </c>
+      <c t="n" r="E17">
+        <v>1</v>
+      </c>
+      <c t="n" r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="18">
+      <c t="s" r="A18">
+        <v>21</v>
+      </c>
+      <c t="n" r="B18">
+        <v>1</v>
+      </c>
+      <c t="n" r="C18">
+        <v>0</v>
+      </c>
+      <c t="n" r="D18">
+        <v>0</v>
+      </c>
+      <c t="n" r="E18">
+        <v>1</v>
+      </c>
+      <c t="n" r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="19">
+      <c t="s" r="A19">
+        <v>22</v>
+      </c>
+      <c t="n" r="B19">
+        <v>0</v>
+      </c>
+      <c t="n" r="C19">
+        <v>1</v>
+      </c>
+      <c t="n" r="D19">
+        <v>0</v>
+      </c>
+      <c t="n" r="E19">
+        <v>1</v>
+      </c>
+      <c t="n" r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="20">
+      <c t="s" r="A20">
+        <v>23</v>
+      </c>
+      <c t="n" r="B20">
+        <v>1</v>
+      </c>
+      <c t="n" r="C20">
+        <v>0</v>
+      </c>
+      <c t="n" r="D20">
+        <v>0</v>
+      </c>
+      <c t="n" r="E20">
+        <v>1</v>
+      </c>
+      <c t="n" r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="21">
+      <c t="s" r="A21">
+        <v>24</v>
+      </c>
+      <c t="n" r="B21">
+        <v>0</v>
+      </c>
+      <c t="n" r="C21">
+        <v>1</v>
+      </c>
+      <c t="n" r="D21">
+        <v>0</v>
+      </c>
+      <c t="n" r="E21">
+        <v>1</v>
+      </c>
+      <c t="n" r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="22">
+      <c t="s" r="A22">
+        <v>25</v>
+      </c>
+      <c t="n" r="B22">
+        <v>1</v>
+      </c>
+      <c t="n" r="C22">
+        <v>0</v>
+      </c>
+      <c t="n" r="D22">
+        <v>0</v>
+      </c>
+      <c t="n" r="E22">
+        <v>1</v>
+      </c>
+      <c t="n" r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="23">
+      <c t="s" r="A23">
+        <v>26</v>
+      </c>
+      <c t="n" r="B23">
+        <v>0</v>
+      </c>
+      <c t="n" r="C23">
+        <v>1</v>
+      </c>
+      <c t="n" r="D23">
+        <v>0</v>
+      </c>
+      <c t="n" r="E23">
+        <v>1</v>
+      </c>
+      <c t="n" r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="24">
+      <c t="s" r="A24">
+        <v>27</v>
+      </c>
+      <c t="n" r="B24">
+        <v>0</v>
+      </c>
+      <c t="n" r="C24">
+        <v>1</v>
+      </c>
+      <c t="n" r="D24">
+        <v>0</v>
+      </c>
+      <c t="n" r="E24">
+        <v>1</v>
+      </c>
+      <c t="n" r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="25">
+      <c t="s" r="A25">
+        <v>28</v>
+      </c>
+      <c t="n" r="B25">
+        <v>0</v>
+      </c>
+      <c t="n" r="C25">
+        <v>1</v>
+      </c>
+      <c t="n" r="D25">
+        <v>0</v>
+      </c>
+      <c t="n" r="E25">
+        <v>1</v>
+      </c>
+      <c t="n" r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="26">
+      <c t="s" r="A26">
+        <v>29</v>
+      </c>
+      <c t="n" r="B26">
+        <v>0</v>
+      </c>
+      <c t="n" r="C26">
+        <v>0</v>
+      </c>
+      <c t="n" r="D26">
+        <v>1</v>
+      </c>
+      <c t="n" r="E26">
+        <v>1</v>
+      </c>
+      <c t="n" r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="27">
+      <c t="s" r="A27">
+        <v>30</v>
+      </c>
+      <c t="n" r="B27">
+        <v>0</v>
+      </c>
+      <c t="n" r="C27">
+        <v>1</v>
+      </c>
+      <c t="n" r="D27">
+        <v>0</v>
+      </c>
+      <c t="n" r="E27">
+        <v>1</v>
+      </c>
+      <c t="n" r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:6" r="28">
+      <c t="s" r="A28">
+        <v>31</v>
+      </c>
+      <c t="n" r="B28">
+        <v>1</v>
+      </c>
+      <c t="n" r="C28">
+        <v>0</v>
+      </c>
+      <c t="n" r="D28">
+        <v>0</v>
+      </c>
+      <c t="n" r="E28">
+        <v>1</v>
+      </c>
+      <c t="n" r="F28">
         <v>0</v>
       </c>
     </row>
